--- a/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Тестовые ф-ты Казацкая рада.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Тестовые ф-ты Казацкая рада.xlsx
@@ -249,6 +249,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,19 +262,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,33 +567,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
@@ -621,59 +621,59 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="7"/>
       <c r="E16" s="10" t="s">
         <v>14</v>
@@ -750,7 +750,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
   </colBreaks>
